--- a/EBAY.xlsx
+++ b/EBAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ED284A-36A6-4554-88A6-8BCF41559A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9C88E0-DB61-429A-89B0-2E8F1B0DC6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23700" yWindow="360" windowWidth="23625" windowHeight="20160" activeTab="1" xr2:uid="{7A8C064B-01E9-40C1-B2EA-2A3C3C9AE0AF}"/>
+    <workbookView xWindow="10215" yWindow="540" windowWidth="16350" windowHeight="12510" activeTab="1" xr2:uid="{7A8C064B-01E9-40C1-B2EA-2A3C3C9AE0AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -216,9 +216,6 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,11 +693,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C541EA-7772-4160-9477-89E06535EB4A}">
   <dimension ref="A1:BW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI21" sqref="AI21"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,7 +921,7 @@
       <c r="I4" s="4">
         <v>705</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="4">
         <f>+T4-I4-H4-G4</f>
         <v>710</v>
       </c>
@@ -958,27 +955,27 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <f>+G3-G4</f>
+        <f t="shared" ref="G5:L5" si="2">+G3-G4</f>
         <v>1810</v>
       </c>
       <c r="H5" s="4">
-        <f>+H3-H4</f>
+        <f t="shared" si="2"/>
         <v>1822</v>
       </c>
       <c r="I5" s="4">
-        <f>+I3-I4</f>
+        <f t="shared" si="2"/>
         <v>1795</v>
       </c>
       <c r="J5" s="4">
-        <f>+J3-J4</f>
+        <f t="shared" si="2"/>
         <v>1852</v>
       </c>
       <c r="K5" s="4">
-        <f>+K3-K4</f>
+        <f t="shared" si="2"/>
         <v>1856</v>
       </c>
       <c r="L5" s="4">
-        <f>+L3-L4</f>
+        <f t="shared" si="2"/>
         <v>1837</v>
       </c>
       <c r="M5" s="4"/>
@@ -1063,8 +1060,8 @@
       <c r="I6" s="4">
         <v>567</v>
       </c>
-      <c r="J6" s="10">
-        <f t="shared" ref="J6:J8" si="2">+T6-I6-H6-G6</f>
+      <c r="J6" s="4">
+        <f t="shared" ref="J6:J8" si="3">+T6-I6-H6-G6</f>
         <v>573</v>
       </c>
       <c r="K6" s="4">
@@ -1089,47 +1086,47 @@
         <v>2106.15</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" ref="V6:AF6" si="3">+U6*0.95</f>
+        <f t="shared" ref="V6:AF6" si="4">+U6*0.95</f>
         <v>2000.8425</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1900.8003749999998</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1805.7603562499996</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1715.4723384374995</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1629.6987215156244</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1548.2137854398432</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1470.803096167851</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1397.2629413594584</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1327.3997942914855</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1261.0298045769111</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1197.9783143480656</v>
       </c>
     </row>
@@ -1152,8 +1149,8 @@
       <c r="I7" s="4">
         <v>401</v>
       </c>
-      <c r="J7" s="10">
-        <f t="shared" si="2"/>
+      <c r="J7" s="4">
+        <f t="shared" si="3"/>
         <v>399</v>
       </c>
       <c r="K7" s="4">
@@ -1174,51 +1171,51 @@
         <v>1544</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" ref="U7:AF7" si="4">+T7*0.95</f>
+        <f t="shared" ref="U7:AF7" si="5">+T7*0.95</f>
         <v>1466.8</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1393.4599999999998</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1323.7869999999998</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1257.5976499999997</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1194.7177674999996</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1134.9818791249995</v>
       </c>
       <c r="AA7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1078.2327851687494</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1024.3211459103118</v>
       </c>
       <c r="AC7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>973.10508861479616</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>924.44983418405627</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>878.22734247485346</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>834.31597535111075</v>
       </c>
     </row>
@@ -1241,8 +1238,8 @@
       <c r="I8" s="4">
         <v>283</v>
       </c>
-      <c r="J8" s="10">
-        <f t="shared" si="2"/>
+      <c r="J8" s="4">
+        <f t="shared" si="3"/>
         <v>365</v>
       </c>
       <c r="K8" s="4">
@@ -1263,51 +1260,51 @@
         <v>1196</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" ref="U8:AF8" si="5">+T8*0.95</f>
+        <f t="shared" ref="U8:AF8" si="6">+T8*0.95</f>
         <v>1136.2</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1079.3900000000001</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1025.4204999999999</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>974.14947499999994</v>
       </c>
       <c r="Y8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>925.44200124999986</v>
       </c>
       <c r="Z8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>879.16990118749982</v>
       </c>
       <c r="AA8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>835.21140612812474</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>793.45083582171844</v>
       </c>
       <c r="AC8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>753.77829403063254</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>716.08937932910089</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>680.28491036264586</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>646.27066484451359</v>
       </c>
     </row>
@@ -1323,37 +1320,37 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <f>+G8+G7+G6</f>
+        <f t="shared" ref="G9:L9" si="7">+G8+G7+G6</f>
         <v>1160</v>
       </c>
       <c r="H9" s="4">
-        <f>+H8+H7+H6</f>
+        <f t="shared" si="7"/>
         <v>1209</v>
       </c>
       <c r="I9" s="4">
-        <f>+I8+I7+I6</f>
+        <f t="shared" si="7"/>
         <v>1251</v>
       </c>
       <c r="J9" s="4">
-        <f>+J8+J7+J6</f>
+        <f t="shared" si="7"/>
         <v>1337</v>
       </c>
       <c r="K9" s="4">
-        <f>+K8+K7+K6</f>
+        <f t="shared" si="7"/>
         <v>1130</v>
       </c>
       <c r="L9" s="4">
-        <f>+L8+L7+L6</f>
+        <f t="shared" si="7"/>
         <v>1197</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="R9" s="1">
-        <f t="shared" ref="R9:S9" si="6">+R8+R7+R6</f>
+        <f t="shared" ref="R9:S9" si="8">+R8+R7+R6</f>
         <v>4416</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4429</v>
       </c>
       <c r="T9" s="1">
@@ -1361,51 +1358,51 @@
         <v>4957</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" ref="U9:AF9" si="7">+U8+U7+U6</f>
+        <f t="shared" ref="U9:AF9" si="9">+U8+U7+U6</f>
         <v>4709.1499999999996</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4473.6925000000001</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4250.0078749999993</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4037.5074812499997</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3835.6321071874991</v>
       </c>
       <c r="Z9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3643.8505018281239</v>
       </c>
       <c r="AA9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3461.6579767367175</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3288.5750778998813</v>
       </c>
       <c r="AC9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3124.146324004887</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2967.9390078046426</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2819.5420574144105</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2678.56495454369</v>
       </c>
     </row>
@@ -1421,37 +1418,37 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <f>+G5-G9</f>
+        <f t="shared" ref="G10:L10" si="10">+G5-G9</f>
         <v>650</v>
       </c>
       <c r="H10" s="4">
-        <f>+H5-H9</f>
+        <f t="shared" si="10"/>
         <v>613</v>
       </c>
       <c r="I10" s="4">
-        <f>+I5-I9</f>
+        <f t="shared" si="10"/>
         <v>544</v>
       </c>
       <c r="J10" s="4">
-        <f>+J5-J9</f>
+        <f t="shared" si="10"/>
         <v>515</v>
       </c>
       <c r="K10" s="4">
-        <f>+K5-K9</f>
+        <f t="shared" si="10"/>
         <v>726</v>
       </c>
       <c r="L10" s="4">
-        <f>+L5-L9</f>
+        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="R10" s="1">
-        <f t="shared" ref="R10:S10" si="8">+R5-R9</f>
+        <f t="shared" ref="R10:S10" si="11">+R5-R9</f>
         <v>3354</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2686</v>
       </c>
       <c r="T10" s="1">
@@ -1459,51 +1456,51 @@
         <v>2322</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" ref="U10:AF10" si="9">+U5-U9</f>
+        <f t="shared" ref="U10:AF10" si="12">+U5-U9</f>
         <v>2227.6819999999998</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2227.2872119999993</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2316.9522427600004</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2304.8435658156013</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2379.8719189367894</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2357.7670622207115</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2419.9272360311406</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2389.349273769149</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2440.2195406307628</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2402.5171373058247</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2443.5049647938472</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2399.8705721163396</v>
       </c>
     </row>
@@ -1528,8 +1525,8 @@
       <c r="I11" s="4">
         <v>-6</v>
       </c>
-      <c r="J11" s="10">
-        <f t="shared" ref="J11" si="10">+T11-I11-H11-G11</f>
+      <c r="J11" s="4">
+        <f t="shared" ref="J11" si="13">+T11-I11-H11-G11</f>
         <v>-15</v>
       </c>
       <c r="K11" s="4">
@@ -1575,19 +1572,19 @@
         <v>594</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" ref="I12:L12" si="11">I10+I11</f>
+        <f t="shared" ref="I12:L12" si="14">I10+I11</f>
         <v>538</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>728</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>641</v>
       </c>
       <c r="M12" s="4"/>
@@ -1597,59 +1594,59 @@
         <v>3194</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" ref="S12:T12" si="12">+S10+S11</f>
+        <f t="shared" ref="S12:T12" si="15">+S10+S11</f>
         <v>2521</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2256</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" ref="U12" si="13">+U10+U11</f>
+        <f t="shared" ref="U12" si="16">+U10+U11</f>
         <v>2227.6819999999998</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ref="V12" si="14">+V10+V11</f>
+        <f t="shared" ref="V12" si="17">+V10+V11</f>
         <v>2227.2872119999993</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" ref="W12" si="15">+W10+W11</f>
+        <f t="shared" ref="W12" si="18">+W10+W11</f>
         <v>2316.9522427600004</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" ref="X12" si="16">+X10+X11</f>
+        <f t="shared" ref="X12" si="19">+X10+X11</f>
         <v>2304.8435658156013</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" ref="Y12" si="17">+Y10+Y11</f>
+        <f t="shared" ref="Y12" si="20">+Y10+Y11</f>
         <v>2379.8719189367894</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" ref="Z12" si="18">+Z10+Z11</f>
+        <f t="shared" ref="Z12" si="21">+Z10+Z11</f>
         <v>2357.7670622207115</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" ref="AA12" si="19">+AA10+AA11</f>
+        <f t="shared" ref="AA12" si="22">+AA10+AA11</f>
         <v>2419.9272360311406</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" ref="AB12" si="20">+AB10+AB11</f>
+        <f t="shared" ref="AB12" si="23">+AB10+AB11</f>
         <v>2389.349273769149</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" ref="AC12" si="21">+AC10+AC11</f>
+        <f t="shared" ref="AC12" si="24">+AC10+AC11</f>
         <v>2440.2195406307628</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" ref="AD12" si="22">+AD10+AD11</f>
+        <f t="shared" ref="AD12" si="25">+AD10+AD11</f>
         <v>2402.5171373058247</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" ref="AE12" si="23">+AE10+AE11</f>
+        <f t="shared" ref="AE12" si="26">+AE10+AE11</f>
         <v>2443.5049647938472</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" ref="AF12" si="24">+AF10+AF11</f>
+        <f t="shared" ref="AF12" si="27">+AF10+AF11</f>
         <v>2399.8705721163396</v>
       </c>
     </row>
@@ -1672,8 +1669,8 @@
       <c r="I13" s="4">
         <v>355</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" ref="J13" si="25">+T13-I13-H13-G13</f>
+      <c r="J13" s="4">
+        <f t="shared" ref="J13" si="28">+T13-I13-H13-G13</f>
         <v>303</v>
       </c>
       <c r="K13" s="4">
@@ -1699,47 +1696,47 @@
         <v>334.15229999999997</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" ref="V13:AF13" si="26">+V12*0.15</f>
+        <f t="shared" ref="V13:AF13" si="29">+V12*0.15</f>
         <v>334.09308179999988</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>347.54283641400008</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>345.72653487234021</v>
       </c>
       <c r="Y13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>356.98078784051842</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>353.66505933310674</v>
       </c>
       <c r="AA13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>362.98908540467107</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>358.40239106537234</v>
       </c>
       <c r="AC13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>366.03293109461441</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>360.37757059587369</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>366.52574471907707</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>359.98058581745096</v>
       </c>
     </row>
@@ -1763,19 +1760,19 @@
         <v>481</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ref="I14:L14" si="27">+I12-I13</f>
+        <f t="shared" ref="I14:L14" si="30">+I12-I13</f>
         <v>183</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>197</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>630</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>539</v>
       </c>
       <c r="M14" s="4"/>
@@ -1793,51 +1790,51 @@
         <v>1324</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" ref="U14:AF14" si="28">+U12-U13</f>
+        <f t="shared" ref="U14:AF14" si="31">+U12-U13</f>
         <v>1893.5296999999998</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1893.1941301999993</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1969.4094063460004</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1959.1170309432612</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2022.891131096271</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2004.1020028876048</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2056.9381506264695</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2030.9468827037767</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2074.1866095361484</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2042.1395667099509</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2076.9792200747702</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2039.8899862988887</v>
       </c>
       <c r="AG14" s="1">
@@ -1845,171 +1842,171 @@
         <v>1999.092186572911</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" ref="AH14:BW14" si="29">+AG14*(1+$AI$18)</f>
+        <f t="shared" ref="AH14:BW14" si="32">+AG14*(1+$AI$18)</f>
         <v>1959.1103428414528</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1919.9281359846239</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1881.5295732649313</v>
       </c>
       <c r="AK14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1843.8989817996326</v>
       </c>
       <c r="AL14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1807.0210021636399</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1770.8805821203671</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1735.4629704779597</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1700.7537110684004</v>
       </c>
       <c r="AP14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1666.7386368470325</v>
       </c>
       <c r="AQ14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1633.4038641100917</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1600.7357868278898</v>
       </c>
       <c r="AS14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1568.7210710913321</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1537.3466496695055</v>
       </c>
       <c r="AU14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1506.5997166761153</v>
       </c>
       <c r="AV14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1476.4677223425931</v>
       </c>
       <c r="AW14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1446.9383678957413</v>
       </c>
       <c r="AX14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1417.9996005378264</v>
       </c>
       <c r="AY14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1389.6396085270699</v>
       </c>
       <c r="AZ14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1361.8468163565285</v>
       </c>
       <c r="BA14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1334.6098800293978</v>
       </c>
       <c r="BB14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1307.9176824288097</v>
       </c>
       <c r="BC14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1281.7593287802335</v>
       </c>
       <c r="BD14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1256.1241422046289</v>
       </c>
       <c r="BE14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1231.0016593605362</v>
       </c>
       <c r="BF14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1206.3816261733255</v>
       </c>
       <c r="BG14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1182.253993649859</v>
       </c>
       <c r="BH14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1158.6089137768618</v>
       </c>
       <c r="BI14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1135.4367355013244</v>
       </c>
       <c r="BJ14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1112.728000791298</v>
       </c>
       <c r="BK14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1090.473440775472</v>
       </c>
       <c r="BL14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1068.6639719599625</v>
       </c>
       <c r="BM14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1047.2906925207633</v>
       </c>
       <c r="BN14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1026.344878670348</v>
       </c>
       <c r="BO14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1005.817981096941</v>
       </c>
       <c r="BP14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>985.70162147500218</v>
       </c>
       <c r="BQ14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>965.98758904550209</v>
       </c>
       <c r="BR14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>946.66783726459198</v>
       </c>
       <c r="BS14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>927.73448051930018</v>
       </c>
       <c r="BT14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>909.17979090891413</v>
       </c>
       <c r="BU14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>890.9961950907358</v>
       </c>
       <c r="BV14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>873.17627118892108</v>
       </c>
       <c r="BW14" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>855.71274576514259</v>
       </c>
     </row>
@@ -2022,27 +2019,27 @@
         <v>1.082116788321168</v>
       </c>
       <c r="G15" s="3">
-        <f>+G14/G16</f>
+        <f t="shared" ref="G15:L15" si="33">+G14/G16</f>
         <v>0.86219739292364994</v>
       </c>
       <c r="H15" s="3">
-        <f>+H14/H16</f>
+        <f t="shared" si="33"/>
         <v>0.8957169459962756</v>
       </c>
       <c r="I15" s="3">
-        <f>+I14/I16</f>
+        <f t="shared" si="33"/>
         <v>0.34398496240601506</v>
       </c>
       <c r="J15" s="3">
-        <f>+J14/J16</f>
+        <f t="shared" si="33"/>
         <v>0.3696060037523452</v>
       </c>
       <c r="K15" s="3">
-        <f>+K14/K16</f>
+        <f t="shared" si="33"/>
         <v>1.2138728323699421</v>
       </c>
       <c r="L15" s="3">
-        <f>+L14/L16</f>
+        <f t="shared" si="33"/>
         <v>1.0631163708086786</v>
       </c>
       <c r="R15" s="8">
@@ -2058,51 +2055,51 @@
         <v>2.4840525328330205</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" ref="U15:AF15" si="30">+U14/U16</f>
+        <f t="shared" ref="U15:AF15" si="34">+U14/U16</f>
         <v>3.5525885553470915</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.551958968480299</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.6949519818874306</v>
       </c>
       <c r="X15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.6756417090867939</v>
       </c>
       <c r="Y15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.7952929288860617</v>
       </c>
       <c r="Z15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.7600412812150186</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.8591710143085729</v>
       </c>
       <c r="AB15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.8104069093879489</v>
       </c>
       <c r="AC15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.891532100443055</v>
       </c>
       <c r="AD15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.8314063165289887</v>
       </c>
       <c r="AE15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.8967715198400943</v>
       </c>
       <c r="AF15" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>3.8271857153825306</v>
       </c>
     </row>
@@ -2146,47 +2143,47 @@
         <v>533</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:AF16" si="31">+U16</f>
+        <f t="shared" ref="V16:AF16" si="35">+U16</f>
         <v>533</v>
       </c>
       <c r="W16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
       <c r="X16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>533</v>
       </c>
     </row>
@@ -2216,47 +2213,47 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" ref="V18:AF18" si="32">+V3/U3-1</f>
+        <f t="shared" ref="V18:AF18" si="36">+V3/U3-1</f>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="AB18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AC18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AD18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="AE18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AF18" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AH18" t="s">
@@ -2279,23 +2276,23 @@
         <v>34</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" ref="G20:L20" si="33">+G5/G3</f>
+        <f t="shared" ref="G20:K20" si="37">+G5/G3</f>
         <v>0.7211155378486056</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.71732283464566926</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.71799999999999997</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.72287275565964093</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0.72613458528951491</v>
       </c>
       <c r="L20" s="7">
@@ -2303,15 +2300,15 @@
         <v>0.71423017107309483</v>
       </c>
       <c r="R20" s="7">
-        <f t="shared" ref="R20:T20" si="34">+R5/R3</f>
+        <f t="shared" ref="R20:T20" si="38">+R5/R3</f>
         <v>0.74568138195777356</v>
       </c>
       <c r="S20" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.72639101582440024</v>
       </c>
       <c r="T20" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.71983781645569622</v>
       </c>
       <c r="AH20" t="s">
@@ -2355,11 +2352,11 @@
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.2">
       <c r="R25" s="1">
-        <f t="shared" ref="R25:S25" si="35">+R23-R24</f>
+        <f t="shared" ref="R25:S25" si="39">+R23-R24</f>
         <v>2213</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1805</v>
       </c>
       <c r="T25" s="1">
